--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW40.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CopperA-HW40.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CopperA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9924754803111219</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9923753196759012</v>
+      </c>
+      <c r="D16">
+        <v>0.9884528854690178</v>
+      </c>
+      <c r="E16">
+        <v>0.995896977005419</v>
+      </c>
+      <c r="F16">
+        <v>0.9946912582886986</v>
+      </c>
+      <c r="G16">
+        <v>0.9923753196759012</v>
+      </c>
+      <c r="H16">
+        <v>0.9884528854690178</v>
+      </c>
+      <c r="I16">
+        <v>0.9921929612759364</v>
+      </c>
+      <c r="J16">
+        <v>0.9959692125204981</v>
+      </c>
+      <c r="K16">
+        <v>0.9946551405311592</v>
+      </c>
+      <c r="L16">
+        <v>0.9847566241747232</v>
+      </c>
+      <c r="M16">
+        <v>0.9923753196759012</v>
+      </c>
+      <c r="N16">
+        <v>0.9921749312372183</v>
+      </c>
+      <c r="O16">
+        <v>0.9928541101097592</v>
+      </c>
+      <c r="P16">
+        <v>0.9923737973676692</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9923753196759012</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.9923753196759012</v>
       </c>
       <c r="D10">
-        <v>0.9495840000000002</v>
+        <v>0.9884528854690178</v>
       </c>
       <c r="E10">
-        <v>1.01</v>
+        <v>0.995896977005419</v>
       </c>
       <c r="F10">
-        <v>0.98</v>
+        <v>0.9946912582886986</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.9923753196759012</v>
       </c>
       <c r="H10">
-        <v>0.9495840000000002</v>
+        <v>0.9884528854690178</v>
       </c>
       <c r="I10">
-        <v>1.01</v>
+        <v>0.9921929612759364</v>
       </c>
       <c r="J10">
-        <v>0.99</v>
+        <v>0.9959692125204981</v>
       </c>
       <c r="K10">
-        <v>1.01</v>
+        <v>0.9946551405311592</v>
       </c>
       <c r="L10">
-        <v>0.9595839999999993</v>
+        <v>0.9847566241747232</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.9923753196759012</v>
       </c>
       <c r="N10">
-        <v>0.9797920000000001</v>
+        <v>0.9921749312372183</v>
       </c>
       <c r="O10">
-        <v>0.9848960000000001</v>
+        <v>0.9928541101097592</v>
       </c>
       <c r="P10">
-        <v>0.9886459999999999</v>
+        <v>0.9923737973676692</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -972,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9438874999999985</v>
+        <v>0.9496828210177182</v>
       </c>
       <c r="E11">
         <v>1.01</v>
@@ -984,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.9438874999999985</v>
+        <v>0.9496828210177182</v>
       </c>
       <c r="I11">
         <v>1.01</v>
@@ -996,19 +1005,19 @@
         <v>1.01</v>
       </c>
       <c r="L11">
-        <v>0.96</v>
+        <v>0.9594336093245179</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>0.9769437499999993</v>
+        <v>0.9798414105088591</v>
       </c>
       <c r="O11">
-        <v>0.9834718749999997</v>
+        <v>0.9849207052544295</v>
       </c>
       <c r="P11">
-        <v>0.9879859374999997</v>
+        <v>0.9886395537927795</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9974502662144011</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.9638976272383964</v>
+        <v>0.9496663328067043</v>
       </c>
       <c r="E12">
-        <v>1.002718030847997</v>
+        <v>1.01</v>
       </c>
       <c r="F12">
-        <v>0.9846681751552002</v>
+        <v>0.98</v>
       </c>
       <c r="G12">
-        <v>0.9974502662144011</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.9638976272383964</v>
+        <v>0.9496663328067043</v>
       </c>
       <c r="I12">
-        <v>1.002460990668799</v>
+        <v>1.01</v>
       </c>
       <c r="J12">
-        <v>0.9904694083583986</v>
+        <v>0.99</v>
       </c>
       <c r="K12">
-        <v>1.002260535910398</v>
+        <v>1.01</v>
       </c>
       <c r="L12">
-        <v>0.9735999580160052</v>
+        <v>0.9594269031756821</v>
       </c>
       <c r="M12">
-        <v>0.9974502662144011</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0.9833078290431969</v>
+        <v>0.9798331664033522</v>
       </c>
       <c r="O12">
-        <v>0.9871835248639987</v>
+        <v>0.9849165832016761</v>
       </c>
       <c r="P12">
-        <v>0.9896906240511995</v>
+        <v>0.9886366544977983</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.992224635241575</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.9924958530350827</v>
+        <v>0.9496638193014009</v>
       </c>
       <c r="E13">
-        <v>0.9923820340211643</v>
+        <v>1.01</v>
       </c>
       <c r="F13">
-        <v>0.9914019093768532</v>
+        <v>0.98</v>
       </c>
       <c r="G13">
-        <v>0.992224635241575</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0.9924958530350827</v>
+        <v>0.9496638193014009</v>
       </c>
       <c r="I13">
-        <v>0.9920284422945708</v>
+        <v>1.01</v>
       </c>
       <c r="J13">
-        <v>0.9923466585448854</v>
+        <v>0.99</v>
       </c>
       <c r="K13">
-        <v>0.9922669239248904</v>
+        <v>1.01</v>
       </c>
       <c r="L13">
-        <v>0.9922006508219052</v>
+        <v>0.95942738527753</v>
       </c>
       <c r="M13">
-        <v>0.992224635241575</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.9924389435281236</v>
+        <v>0.9798319096507004</v>
       </c>
       <c r="O13">
-        <v>0.9921261079186687</v>
+        <v>0.9849159548253502</v>
       </c>
       <c r="P13">
-        <v>0.9921683884076158</v>
+        <v>0.9886364005723663</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9908784454390532</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.9947482791272109</v>
+        <v>0.9495840000000002</v>
       </c>
       <c r="E14">
-        <v>0.9890534753726451</v>
+        <v>1.01</v>
       </c>
       <c r="F14">
-        <v>0.9924934565927375</v>
+        <v>0.98</v>
       </c>
       <c r="G14">
-        <v>0.9908784454390532</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0.9947482791272109</v>
+        <v>0.9495840000000002</v>
       </c>
       <c r="I14">
-        <v>0.9917315873596162</v>
+        <v>1.01</v>
       </c>
       <c r="J14">
-        <v>0.9926047328331145</v>
+        <v>0.99</v>
       </c>
       <c r="K14">
-        <v>0.9918323857288022</v>
+        <v>1.01</v>
       </c>
       <c r="L14">
-        <v>0.9927372735010029</v>
+        <v>0.9595839999999993</v>
       </c>
       <c r="M14">
-        <v>0.9908784454390532</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.991900877249928</v>
+        <v>0.9797920000000001</v>
       </c>
       <c r="O14">
-        <v>0.9917934141329117</v>
+        <v>0.9848960000000001</v>
       </c>
       <c r="P14">
-        <v>0.9920099544942728</v>
+        <v>0.9886459999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9886172045531363</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.9975203306442822</v>
+        <v>0.9438874999999985</v>
       </c>
       <c r="E15">
-        <v>0.9910551761711779</v>
+        <v>1.01</v>
       </c>
       <c r="F15">
-        <v>0.9924456213676566</v>
+        <v>0.98</v>
       </c>
       <c r="G15">
-        <v>0.9886172045531363</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.9975203306442822</v>
+        <v>0.9438874999999985</v>
       </c>
       <c r="I15">
-        <v>0.9898135167540066</v>
+        <v>1.01</v>
       </c>
       <c r="J15">
-        <v>0.9932501616264142</v>
+        <v>0.99</v>
       </c>
       <c r="K15">
-        <v>0.991039229559066</v>
+        <v>1.01</v>
       </c>
       <c r="L15">
-        <v>0.9960626018132351</v>
+        <v>0.96</v>
       </c>
       <c r="M15">
-        <v>0.9886172045531363</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.9942877534077301</v>
+        <v>0.9769437499999993</v>
       </c>
       <c r="O15">
-        <v>0.9924095831840632</v>
+        <v>0.9834718749999997</v>
       </c>
       <c r="P15">
-        <v>0.9924754803111219</v>
+        <v>0.9879859374999997</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9923753196759012</v>
+        <v>0.9974502662144011</v>
       </c>
       <c r="D16">
-        <v>0.9884528854690178</v>
+        <v>0.9638976272383964</v>
       </c>
       <c r="E16">
-        <v>0.995896977005419</v>
+        <v>1.002718030847997</v>
       </c>
       <c r="F16">
-        <v>0.9946912582886986</v>
+        <v>0.9846681751552002</v>
       </c>
       <c r="G16">
-        <v>0.9923753196759012</v>
+        <v>0.9974502662144011</v>
       </c>
       <c r="H16">
-        <v>0.9884528854690178</v>
+        <v>0.9638976272383964</v>
       </c>
       <c r="I16">
-        <v>0.9921929612759364</v>
+        <v>1.002460990668799</v>
       </c>
       <c r="J16">
-        <v>0.9959692125204981</v>
+        <v>0.9904694083583986</v>
       </c>
       <c r="K16">
-        <v>0.9946551405311592</v>
+        <v>1.002260535910398</v>
       </c>
       <c r="L16">
-        <v>0.9847566241747232</v>
+        <v>0.9735999580160052</v>
       </c>
       <c r="M16">
-        <v>0.9923753196759012</v>
+        <v>0.9974502662144011</v>
       </c>
       <c r="N16">
-        <v>0.9921749312372183</v>
+        <v>0.9833078290431969</v>
       </c>
       <c r="O16">
-        <v>0.9928541101097592</v>
+        <v>0.9871835248639987</v>
       </c>
       <c r="P16">
-        <v>0.9923737973676692</v>
+        <v>0.9896906240511995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.992224635241575</v>
+      </c>
+      <c r="D17">
+        <v>0.9924958530350827</v>
+      </c>
+      <c r="E17">
+        <v>0.9923820340211643</v>
+      </c>
+      <c r="F17">
+        <v>0.9914019093768532</v>
+      </c>
+      <c r="G17">
+        <v>0.992224635241575</v>
+      </c>
+      <c r="H17">
+        <v>0.9924958530350827</v>
+      </c>
+      <c r="I17">
+        <v>0.9920284422945708</v>
+      </c>
+      <c r="J17">
+        <v>0.9923466585448854</v>
+      </c>
+      <c r="K17">
+        <v>0.9922669239248904</v>
+      </c>
+      <c r="L17">
+        <v>0.9922006508219052</v>
+      </c>
+      <c r="M17">
+        <v>0.992224635241575</v>
+      </c>
+      <c r="N17">
+        <v>0.9924389435281236</v>
+      </c>
+      <c r="O17">
+        <v>0.9921261079186687</v>
+      </c>
+      <c r="P17">
+        <v>0.9921683884076158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9908784454390532</v>
+      </c>
+      <c r="D18">
+        <v>0.9947482791272109</v>
+      </c>
+      <c r="E18">
+        <v>0.9890534753726451</v>
+      </c>
+      <c r="F18">
+        <v>0.9924934565927375</v>
+      </c>
+      <c r="G18">
+        <v>0.9908784454390532</v>
+      </c>
+      <c r="H18">
+        <v>0.9947482791272109</v>
+      </c>
+      <c r="I18">
+        <v>0.9917315873596162</v>
+      </c>
+      <c r="J18">
+        <v>0.9926047328331145</v>
+      </c>
+      <c r="K18">
+        <v>0.9918323857288022</v>
+      </c>
+      <c r="L18">
+        <v>0.9927372735010029</v>
+      </c>
+      <c r="M18">
+        <v>0.9908784454390532</v>
+      </c>
+      <c r="N18">
+        <v>0.991900877249928</v>
+      </c>
+      <c r="O18">
+        <v>0.9917934141329117</v>
+      </c>
+      <c r="P18">
+        <v>0.9920099544942728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9886172045531363</v>
+      </c>
+      <c r="D19">
+        <v>0.9975203306442822</v>
+      </c>
+      <c r="E19">
+        <v>0.9910551761711779</v>
+      </c>
+      <c r="F19">
+        <v>0.9924456213676566</v>
+      </c>
+      <c r="G19">
+        <v>0.9886172045531363</v>
+      </c>
+      <c r="H19">
+        <v>0.9975203306442822</v>
+      </c>
+      <c r="I19">
+        <v>0.9898135167540066</v>
+      </c>
+      <c r="J19">
+        <v>0.9932501616264142</v>
+      </c>
+      <c r="K19">
+        <v>0.991039229559066</v>
+      </c>
+      <c r="L19">
+        <v>0.9960626018132351</v>
+      </c>
+      <c r="M19">
+        <v>0.9886172045531363</v>
+      </c>
+      <c r="N19">
+        <v>0.9942877534077301</v>
+      </c>
+      <c r="O19">
+        <v>0.9924095831840632</v>
+      </c>
+      <c r="P19">
+        <v>0.9924754803111219</v>
       </c>
     </row>
   </sheetData>
